--- a/CNN_RetrainAfterGurobi/Stats/ResultAllFile_RAF.xlsx
+++ b/CNN_RetrainAfterGurobi/Stats/ResultAllFile_RAF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,291 +878,293 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>USPS</t>
+          <t>office31_2060</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>99.84912906322865</v>
+        <v>81.32209406</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0082103623950274</v>
+        <v>0.69589823</v>
       </c>
       <c r="E8" t="n">
-        <v>97.90732436472346</v>
+        <v>62.69982238</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0885941136895847</v>
+        <v>1.597375063</v>
       </c>
       <c r="G8" t="n">
-        <v>99.84912906322865</v>
+        <v>81.32209406</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0082103623950274</v>
+        <v>0.69589823</v>
       </c>
       <c r="I8" t="n">
-        <v>97.90732436472346</v>
+        <v>62.69982238</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0885941136895847</v>
+        <v>1.597375063</v>
       </c>
       <c r="K8" t="n">
-        <v>99.80798244410916</v>
+        <v>89.70718721999999</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0077831287183327</v>
+        <v>0.418703621</v>
       </c>
       <c r="M8" t="n">
-        <v>97.90732436472346</v>
+        <v>62.69982238</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0890445993307686</v>
+        <v>1.597378027</v>
       </c>
       <c r="O8" t="n">
-        <v>99.97256892058702</v>
+        <v>79.99112689</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0035430670972583</v>
+        <v>0.689869556</v>
       </c>
       <c r="Q8" t="n">
-        <v>98.30592924763329</v>
+        <v>62.69982238</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0721314635877994</v>
+        <v>1.607917241</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>USPS</t>
+          <t>office31_2060</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>98.86161020436154</v>
+        <v>73.02573203</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0326143285731604</v>
+        <v>0.9025719129999999</v>
       </c>
       <c r="E9" t="n">
-        <v>96.3129048330842</v>
+        <v>59.3250444</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1333266285091327</v>
+        <v>1.592759656</v>
       </c>
       <c r="G9" t="n">
-        <v>98.86161020436154</v>
+        <v>73.02573203</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0326143285731604</v>
+        <v>0.9025719129999999</v>
       </c>
       <c r="I9" t="n">
-        <v>96.3129048330842</v>
+        <v>59.3250444</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1333266285091327</v>
+        <v>1.592759656</v>
       </c>
       <c r="K9" t="n">
-        <v>98.54615279111232</v>
+        <v>83.0079858</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0488939654993915</v>
+        <v>0.623552643</v>
       </c>
       <c r="M9" t="n">
-        <v>96.3129048330842</v>
+        <v>59.3250444</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1327847022673878</v>
+        <v>1.592810128</v>
       </c>
       <c r="O9" t="n">
-        <v>99.30050747496914</v>
+        <v>73.02573203</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0223014669502893</v>
+        <v>0.930190746</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.259591429995</v>
+        <v>59.14742451</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1167989146807616</v>
+        <v>1.595517915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>USPS</t>
+          <t>office31_2060</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>99.2319297764367</v>
+        <v>77.7284827</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0244751419508211</v>
+        <v>0.753825991</v>
       </c>
       <c r="E10" t="n">
-        <v>98.00697558545092</v>
+        <v>64.65364121</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0832173074362258</v>
+        <v>1.431201042</v>
       </c>
       <c r="G10" t="n">
-        <v>99.2319297764367</v>
+        <v>97.78172137999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0244751419508211</v>
+        <v>0.094563201</v>
       </c>
       <c r="I10" t="n">
-        <v>98.00697558545092</v>
+        <v>62.52220249</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0832173074362258</v>
+        <v>2.66830157</v>
       </c>
       <c r="K10" t="n">
-        <v>99.45137841174051</v>
+        <v>87.71073647</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0163874125349684</v>
+        <v>0.466245524</v>
       </c>
       <c r="M10" t="n">
-        <v>98.00697558545092</v>
+        <v>64.65364121</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0832495509258591</v>
+        <v>1.431203557</v>
       </c>
       <c r="O10" t="n">
-        <v>99.49252503085997</v>
+        <v>77.59538598</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0167814210734188</v>
+        <v>0.735507394</v>
       </c>
       <c r="Q10" t="n">
-        <v>97.50871948181366</v>
+        <v>65.36412077999999</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1319665031056646</v>
+        <v>1.433681081</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>USPS</t>
+          <t>office31_2060</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>99.465093951447</v>
+        <v>74.88908607</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0194535797173843</v>
+        <v>0.824802556</v>
       </c>
       <c r="E11" t="n">
-        <v>97.95714997508721</v>
+        <v>62.52220249</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0872759620352859</v>
+        <v>1.600678395</v>
       </c>
       <c r="G11" t="n">
-        <v>99.465093951447</v>
+        <v>87.04525288000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0194535797173843</v>
+        <v>0.42261639</v>
       </c>
       <c r="I11" t="n">
-        <v>97.95714997508721</v>
+        <v>54.70692718</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0872759620352859</v>
+        <v>2.828414029</v>
       </c>
       <c r="K11" t="n">
-        <v>99.437662872034</v>
+        <v>85.04880213</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0199957513257079</v>
+        <v>0.544156271</v>
       </c>
       <c r="M11" t="n">
-        <v>97.95714997508721</v>
+        <v>62.52220249</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0873053394656322</v>
+        <v>1.600688394</v>
       </c>
       <c r="O11" t="n">
-        <v>99.465093951447</v>
+        <v>75.19964508</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0177174003997989</v>
+        <v>0.832931463</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.90732436472346</v>
+        <v>63.23268206</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1133636390104486</v>
+        <v>1.594255453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>USPS</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
+          <t>office31_2060</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>99.21821423673022</v>
+        <v>76.741348715</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0225357408979317</v>
+        <v>0.7942746724999999</v>
       </c>
       <c r="E12" t="n">
-        <v>98.25610363726956</v>
+        <v>62.30017762</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0780292633850538</v>
+        <v>1.555503539</v>
       </c>
       <c r="G12" t="n">
-        <v>99.21821423673022</v>
+        <v>84.7937000875</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0225357408979317</v>
+        <v>0.5289124334999999</v>
       </c>
       <c r="I12" t="n">
-        <v>98.25610363726956</v>
+        <v>59.8134991125</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0780292633850538</v>
+        <v>2.1717125795</v>
       </c>
       <c r="K12" t="n">
-        <v>99.6708270470443</v>
+        <v>86.368677905</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0113237171200398</v>
+        <v>0.51316451475</v>
       </c>
       <c r="M12" t="n">
-        <v>98.25610363726956</v>
+        <v>62.30017762</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0779903652950001</v>
+        <v>1.5555200265</v>
       </c>
       <c r="O12" t="n">
-        <v>99.54738718968592</v>
+        <v>76.452972495</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0177387464109418</v>
+        <v>0.79712478975</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.4090682610862</v>
+        <v>62.6110124325</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08911184194509419</v>
+        <v>1.5578429225</v>
       </c>
     </row>
     <row r="13">
@@ -1171,348 +1173,348 @@
           <t>USPS</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="B13" t="n">
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>99.32519544644082</v>
+        <v>99.84912906322865</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02145783070686498</v>
+        <v>0.0082103623950274</v>
       </c>
       <c r="E13" t="n">
-        <v>97.68809167912306</v>
+        <v>97.90732436472346</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09408865501105657</v>
+        <v>0.0885941136895847</v>
       </c>
       <c r="G13" t="n">
-        <v>99.32519544644082</v>
+        <v>99.84912906322865</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02145783070686498</v>
+        <v>0.0082103623950274</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68809167912306</v>
+        <v>97.90732436472346</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09408865501105657</v>
+        <v>0.0885941136895847</v>
       </c>
       <c r="K13" t="n">
-        <v>99.38280071320806</v>
+        <v>99.80798244410916</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02087679503968806</v>
+        <v>0.0077831287183327</v>
       </c>
       <c r="M13" t="n">
-        <v>97.68809167912306</v>
+        <v>97.90732436472346</v>
       </c>
       <c r="N13" t="n">
-        <v>0.09407491145692956</v>
+        <v>0.0890445993307686</v>
       </c>
       <c r="O13" t="n">
-        <v>99.55561651350982</v>
+        <v>99.97256892058702</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01561642038634142</v>
+        <v>0.0035430670972583</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.67812655705032</v>
+        <v>98.30592924763329</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1046744724659537</v>
+        <v>0.0721314635877994</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MNIST</t>
+          <t>USPS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>99.98833333</v>
+        <v>98.86161020436154</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002341055</v>
+        <v>0.0326143285731604</v>
       </c>
       <c r="E14" t="n">
-        <v>98.64</v>
+        <v>96.3129048330842</v>
       </c>
       <c r="F14" t="n">
-        <v>0.054130606</v>
+        <v>0.1333266285091327</v>
       </c>
       <c r="G14" t="n">
-        <v>99.985</v>
+        <v>98.86161020436154</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002648909</v>
+        <v>0.0326143285731604</v>
       </c>
       <c r="I14" t="n">
-        <v>98.59</v>
+        <v>96.3129048330842</v>
       </c>
       <c r="J14" t="n">
-        <v>0.054063885</v>
+        <v>0.1333266285091327</v>
       </c>
       <c r="K14" t="n">
-        <v>99.965</v>
+        <v>98.54615279111232</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0029166917448198</v>
+        <v>0.0488939654993915</v>
       </c>
       <c r="M14" t="n">
-        <v>98.63</v>
+        <v>96.3129048330842</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0542939796385929</v>
+        <v>0.1327847022673878</v>
       </c>
       <c r="O14" t="n">
-        <v>99.97499999999999</v>
+        <v>99.30050747496914</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0031054784896131</v>
+        <v>0.0223014669502893</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.59999999999999</v>
+        <v>97.259591429995</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05447029610132</v>
+        <v>0.1167989146807616</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MNIST</t>
+          <t>USPS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>99.995</v>
+        <v>99.2319297764367</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001603907</v>
+        <v>0.0244751419508211</v>
       </c>
       <c r="E15" t="n">
-        <v>98.68000000000001</v>
+        <v>98.00697558545092</v>
       </c>
       <c r="F15" t="n">
-        <v>0.053389957</v>
+        <v>0.0832173074362258</v>
       </c>
       <c r="G15" t="n">
-        <v>99.995</v>
+        <v>99.2319297764367</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001911107</v>
+        <v>0.0244751419508211</v>
       </c>
       <c r="I15" t="n">
-        <v>98.67</v>
+        <v>98.00697558545092</v>
       </c>
       <c r="J15" t="n">
-        <v>0.053971824</v>
+        <v>0.0832173074362258</v>
       </c>
       <c r="K15" t="n">
-        <v>99.98833333333332</v>
+        <v>99.45137841174051</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0017619113090786</v>
+        <v>0.0163874125349684</v>
       </c>
       <c r="M15" t="n">
-        <v>98.68000000000001</v>
+        <v>98.00697558545092</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0534065287977086</v>
+        <v>0.0832495509258591</v>
       </c>
       <c r="O15" t="n">
-        <v>99.98999999999999</v>
+        <v>99.49252503085997</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0021619058957861</v>
+        <v>0.0167814210734188</v>
       </c>
       <c r="Q15" t="n">
-        <v>98.65000000000001</v>
+        <v>97.50871948181366</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0559738554088282</v>
+        <v>0.1319665031056646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MNIST</t>
+          <t>USPS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>99.97833333</v>
+        <v>99.465093951447</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002992859</v>
+        <v>0.0194535797173843</v>
       </c>
       <c r="E16" t="n">
-        <v>98.53</v>
+        <v>97.95714997508721</v>
       </c>
       <c r="F16" t="n">
-        <v>0.066021331</v>
+        <v>0.0872759620352859</v>
       </c>
       <c r="G16" t="n">
-        <v>99.96666667</v>
+        <v>99.465093951447</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003393548</v>
+        <v>0.0194535797173843</v>
       </c>
       <c r="I16" t="n">
-        <v>98.48999999999999</v>
+        <v>97.95714997508721</v>
       </c>
       <c r="J16" t="n">
-        <v>0.067044219</v>
+        <v>0.0872759620352859</v>
       </c>
       <c r="K16" t="n">
-        <v>99.95166666666668</v>
+        <v>99.437662872034</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003533486625582</v>
+        <v>0.0199957513257079</v>
       </c>
       <c r="M16" t="n">
-        <v>98.51000000000001</v>
+        <v>97.95714997508721</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0673474207186243</v>
+        <v>0.0873053394656322</v>
       </c>
       <c r="O16" t="n">
-        <v>99.95333333333332</v>
+        <v>99.465093951447</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0038500088632163</v>
+        <v>0.0177174003997989</v>
       </c>
       <c r="Q16" t="n">
-        <v>98.44</v>
+        <v>97.90732436472346</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0701931781848366</v>
+        <v>0.1133636390104486</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MNIST</t>
+          <t>USPS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>99.97499999999999</v>
+        <v>99.21821423673022</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002831719</v>
+        <v>0.0225357408979317</v>
       </c>
       <c r="E17" t="n">
-        <v>98.43000000000001</v>
+        <v>98.25610363726956</v>
       </c>
       <c r="F17" t="n">
-        <v>0.065915934</v>
+        <v>0.0780292633850538</v>
       </c>
       <c r="G17" t="n">
-        <v>99.97166667</v>
+        <v>99.21821423673022</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003169737</v>
+        <v>0.0225357408979317</v>
       </c>
       <c r="I17" t="n">
-        <v>98.44</v>
+        <v>98.25610363726956</v>
       </c>
       <c r="J17" t="n">
-        <v>0.066334823</v>
+        <v>0.0780292633850538</v>
       </c>
       <c r="K17" t="n">
-        <v>99.97333333333331</v>
+        <v>99.6708270470443</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0028599051371894</v>
+        <v>0.0113237171200398</v>
       </c>
       <c r="M17" t="n">
-        <v>98.42</v>
+        <v>98.25610363726956</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0659359453914042</v>
+        <v>0.0779903652950001</v>
       </c>
       <c r="O17" t="n">
-        <v>99.97333333333331</v>
+        <v>99.54738718968592</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0032323071105452</v>
+        <v>0.0177387464109418</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.39</v>
+        <v>97.4090682610862</v>
       </c>
       <c r="R17" t="n">
-        <v>0.067318615786447</v>
+        <v>0.08911184194509419</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MNIST</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
+          <t>USPS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>97.47166667</v>
+        <v>99.32519544644082</v>
       </c>
       <c r="D18" t="n">
-        <v>0.081294358</v>
+        <v>0.02145783070686498</v>
       </c>
       <c r="E18" t="n">
-        <v>97.58</v>
+        <v>97.68809167912306</v>
       </c>
       <c r="F18" t="n">
-        <v>0.079959643</v>
+        <v>0.09408865501105657</v>
       </c>
       <c r="G18" t="n">
-        <v>97.47166667</v>
+        <v>99.32519544644082</v>
       </c>
       <c r="H18" t="n">
-        <v>0.081294358</v>
+        <v>0.02145783070686498</v>
       </c>
       <c r="I18" t="n">
-        <v>97.58</v>
+        <v>97.68809167912306</v>
       </c>
       <c r="J18" t="n">
-        <v>0.079959643</v>
+        <v>0.09408865501105657</v>
       </c>
       <c r="K18" t="n">
-        <v>97.98999999999999</v>
+        <v>99.38280071320806</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0664661059619412</v>
+        <v>0.02087679503968806</v>
       </c>
       <c r="M18" t="n">
-        <v>97.58</v>
+        <v>97.68809167912306</v>
       </c>
       <c r="N18" t="n">
-        <v>0.07997117762369919</v>
+        <v>0.09407491145692956</v>
       </c>
       <c r="O18" t="n">
-        <v>98.875</v>
+        <v>99.55561651350982</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0340594531266803</v>
+        <v>0.01561642038634142</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.12</v>
+        <v>97.67812655705032</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06525962573141041</v>
+        <v>0.1046744724659537</v>
       </c>
     </row>
     <row r="19">
@@ -1521,348 +1523,348 @@
           <t>MNIST</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="B19" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>99.481666666</v>
+        <v>99.98833333</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0182127796</v>
+        <v>0.002341055</v>
       </c>
       <c r="E19" t="n">
-        <v>98.372</v>
+        <v>98.64</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06388349419999999</v>
+        <v>0.054130606</v>
       </c>
       <c r="G19" t="n">
-        <v>99.478000002</v>
+        <v>99.985</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0184835318</v>
+        <v>0.002648909</v>
       </c>
       <c r="I19" t="n">
-        <v>98.354</v>
+        <v>98.59</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0642748788</v>
+        <v>0.054063885</v>
       </c>
       <c r="K19" t="n">
-        <v>99.57366666666665</v>
+        <v>99.965</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0155076201557222</v>
+        <v>0.0029166917448198</v>
       </c>
       <c r="M19" t="n">
-        <v>98.364</v>
+        <v>98.63</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06419101043400584</v>
+        <v>0.0542939796385929</v>
       </c>
       <c r="O19" t="n">
-        <v>99.75333333333332</v>
+        <v>99.97499999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0092818306971682</v>
+        <v>0.0031054784896131</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.44</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06264311424256844</v>
+        <v>0.05447029610132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EMNIST</t>
+          <t>MNIST</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>99.995</v>
       </c>
       <c r="D20" t="n">
-        <v>1.248781603654381e-05</v>
+        <v>0.001603907</v>
       </c>
       <c r="E20" t="n">
-        <v>93.04807692307692</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>1.344618188742651</v>
+        <v>0.053389957</v>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>99.995</v>
       </c>
       <c r="H20" t="n">
-        <v>1.248781603654381e-05</v>
+        <v>0.001911107</v>
       </c>
       <c r="I20" t="n">
-        <v>93.04807692307692</v>
+        <v>98.67</v>
       </c>
       <c r="J20" t="n">
-        <v>1.344618188742651</v>
+        <v>0.053971824</v>
       </c>
       <c r="K20" t="n">
-        <v>99.99759615384616</v>
+        <v>99.98833333333332</v>
       </c>
       <c r="L20" t="n">
-        <v>5.557037466508869e-05</v>
+        <v>0.0017619113090786</v>
       </c>
       <c r="M20" t="n">
-        <v>93.0096153846154</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="N20" t="n">
-        <v>1.346715555625689</v>
+        <v>0.0534065287977086</v>
       </c>
       <c r="O20" t="n">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>9.420161956477449e-06</v>
+        <v>0.0021619058957861</v>
       </c>
       <c r="Q20" t="n">
-        <v>93.03365384615384</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>1.384852756708841</v>
+        <v>0.0559738554088282</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EMNIST</t>
+          <t>MNIST</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>99.97833333</v>
       </c>
       <c r="D21" t="n">
-        <v>1.450014525730671e-05</v>
+        <v>0.002992859</v>
       </c>
       <c r="E21" t="n">
-        <v>93.3653846153846</v>
+        <v>98.53</v>
       </c>
       <c r="F21" t="n">
-        <v>1.111589459645738</v>
+        <v>0.066021331</v>
       </c>
       <c r="G21" t="n">
-        <v>100</v>
+        <v>99.96666667</v>
       </c>
       <c r="H21" t="n">
-        <v>1.450014525730671e-05</v>
+        <v>0.003393548</v>
       </c>
       <c r="I21" t="n">
-        <v>93.3653846153846</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>1.111589459645738</v>
+        <v>0.067044219</v>
       </c>
       <c r="K21" t="n">
-        <v>99.99839743589745</v>
+        <v>99.95166666666668</v>
       </c>
       <c r="L21" t="n">
-        <v>4.954964990935548e-05</v>
+        <v>0.003533486625582</v>
       </c>
       <c r="M21" t="n">
-        <v>93.34134615384616</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>1.114475168040491</v>
+        <v>0.0673474207186243</v>
       </c>
       <c r="O21" t="n">
-        <v>100</v>
+        <v>99.95333333333332</v>
       </c>
       <c r="P21" t="n">
-        <v>1.119782786134386e-05</v>
+        <v>0.0038500088632163</v>
       </c>
       <c r="Q21" t="n">
-        <v>93.38942307692308</v>
+        <v>98.44</v>
       </c>
       <c r="R21" t="n">
-        <v>1.140420926517979</v>
+        <v>0.0701931781848366</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EMNIST</t>
+          <t>MNIST</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>99.97499999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>1.610376652405465e-05</v>
+        <v>0.002831719</v>
       </c>
       <c r="E22" t="n">
-        <v>93.0721153846154</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>1.205844920398931</v>
+        <v>0.065915934</v>
       </c>
       <c r="G22" t="n">
-        <v>100</v>
+        <v>99.97166667</v>
       </c>
       <c r="H22" t="n">
-        <v>1.610376652405465e-05</v>
+        <v>0.003169737</v>
       </c>
       <c r="I22" t="n">
-        <v>93.0721153846154</v>
+        <v>98.44</v>
       </c>
       <c r="J22" t="n">
-        <v>1.205844920398931</v>
+        <v>0.066334823</v>
       </c>
       <c r="K22" t="n">
-        <v>99.99599358974361</v>
+        <v>99.97333333333331</v>
       </c>
       <c r="L22" t="n">
-        <v>9.64361268599556e-05</v>
+        <v>0.0028599051371894</v>
       </c>
       <c r="M22" t="n">
-        <v>93.08173076923076</v>
+        <v>98.42</v>
       </c>
       <c r="N22" t="n">
-        <v>1.216797199764706</v>
+        <v>0.0659359453914042</v>
       </c>
       <c r="O22" t="n">
-        <v>100</v>
+        <v>99.97333333333331</v>
       </c>
       <c r="P22" t="n">
-        <v>1.286069975360636e-05</v>
+        <v>0.0032323071105452</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.10576923076924</v>
+        <v>98.39</v>
       </c>
       <c r="R22" t="n">
-        <v>1.231355634905841</v>
+        <v>0.067318615786447</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EMNIST</t>
+          <t>MNIST</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>97.47166667</v>
       </c>
       <c r="D23" t="n">
-        <v>1.1109530091451e-05</v>
+        <v>0.081294358</v>
       </c>
       <c r="E23" t="n">
-        <v>93.22596153846152</v>
+        <v>97.58</v>
       </c>
       <c r="F23" t="n">
-        <v>1.158221528843768</v>
+        <v>0.079959643</v>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>97.47166667</v>
       </c>
       <c r="H23" t="n">
-        <v>1.1109530091451e-05</v>
+        <v>0.081294358</v>
       </c>
       <c r="I23" t="n">
-        <v>93.22596153846152</v>
+        <v>97.58</v>
       </c>
       <c r="J23" t="n">
-        <v>1.158221528843768</v>
+        <v>0.079959643</v>
       </c>
       <c r="K23" t="n">
-        <v>99.99278846153848</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001421148095789</v>
+        <v>0.0664661059619412</v>
       </c>
       <c r="M23" t="n">
-        <v>93.22596153846152</v>
+        <v>97.58</v>
       </c>
       <c r="N23" t="n">
-        <v>1.168747935367284</v>
+        <v>0.07997117762369919</v>
       </c>
       <c r="O23" t="n">
-        <v>100</v>
+        <v>98.875</v>
       </c>
       <c r="P23" t="n">
-        <v>9.025186369368024e-06</v>
+        <v>0.0340594531266803</v>
       </c>
       <c r="Q23" t="n">
-        <v>93.22115384615384</v>
+        <v>98.12</v>
       </c>
       <c r="R23" t="n">
-        <v>1.183385669394633</v>
+        <v>0.06525962573141041</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EMNIST</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>5</v>
+          <t>MNIST</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>99.481666666</v>
       </c>
       <c r="D24" t="n">
-        <v>1.381637100018158e-05</v>
+        <v>0.0182127796</v>
       </c>
       <c r="E24" t="n">
-        <v>92.9471153846154</v>
+        <v>98.372</v>
       </c>
       <c r="F24" t="n">
-        <v>1.261358007347232</v>
+        <v>0.06388349419999999</v>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>99.478000002</v>
       </c>
       <c r="H24" t="n">
-        <v>1.381637100018158e-05</v>
+        <v>0.0184835318</v>
       </c>
       <c r="I24" t="n">
-        <v>92.9471153846154</v>
+        <v>98.354</v>
       </c>
       <c r="J24" t="n">
-        <v>1.261358007347232</v>
+        <v>0.0642748788</v>
       </c>
       <c r="K24" t="n">
-        <v>99.99919871794872</v>
+        <v>99.57366666666665</v>
       </c>
       <c r="L24" t="n">
-        <v>2.032894585575004e-05</v>
+        <v>0.0155076201557222</v>
       </c>
       <c r="M24" t="n">
-        <v>92.93269230769231</v>
+        <v>98.364</v>
       </c>
       <c r="N24" t="n">
-        <v>1.263616117933418</v>
+        <v>0.06419101043400584</v>
       </c>
       <c r="O24" t="n">
-        <v>100</v>
+        <v>99.75333333333332</v>
       </c>
       <c r="P24" t="n">
-        <v>1.139566079835398e-05</v>
+        <v>0.0092818306971682</v>
       </c>
       <c r="Q24" t="n">
-        <v>92.97596153846152</v>
+        <v>98.44</v>
       </c>
       <c r="R24" t="n">
-        <v>1.283921948916747</v>
+        <v>0.06264311424256844</v>
       </c>
     </row>
     <row r="25">
@@ -1871,348 +1873,348 @@
           <t>EMNIST</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="B25" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>1.360352578190755e-05</v>
+        <v>1.248781603654381e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>93.13173076923077</v>
+        <v>93.04807692307692</v>
       </c>
       <c r="F25" t="n">
-        <v>1.216326420995664</v>
+        <v>1.344618188742651</v>
       </c>
       <c r="G25" t="n">
         <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>1.360352578190755e-05</v>
+        <v>1.248781603654381e-05</v>
       </c>
       <c r="I25" t="n">
-        <v>93.13173076923077</v>
+        <v>93.04807692307692</v>
       </c>
       <c r="J25" t="n">
-        <v>1.216326420995664</v>
+        <v>1.344618188742651</v>
       </c>
       <c r="K25" t="n">
-        <v>99.99679487179488</v>
+        <v>99.99759615384616</v>
       </c>
       <c r="L25" t="n">
-        <v>7.279998137380995e-05</v>
+        <v>5.557037466508869e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>93.11826923076923</v>
+        <v>93.0096153846154</v>
       </c>
       <c r="N25" t="n">
-        <v>1.222070395346318</v>
+        <v>1.346715555625689</v>
       </c>
       <c r="O25" t="n">
         <v>100</v>
       </c>
       <c r="P25" t="n">
-        <v>1.077990734782993e-05</v>
+        <v>9.420161956477449e-06</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.14519230769231</v>
+        <v>93.03365384615384</v>
       </c>
       <c r="R25" t="n">
-        <v>1.244787387288808</v>
+        <v>1.384852756708841</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FashionMNIST</t>
+          <t>EMNIST</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>93.34833333333331</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1815220332162433</v>
+        <v>1.450014525730671e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>90.44</v>
+        <v>93.3653846153846</v>
       </c>
       <c r="F26" t="n">
-        <v>0.274603501052004</v>
+        <v>1.111589459645738</v>
       </c>
       <c r="G26" t="n">
-        <v>93.27333333333333</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1832363823031029</v>
+        <v>1.450014525730671e-05</v>
       </c>
       <c r="I26" t="n">
-        <v>90.25</v>
+        <v>93.3653846153846</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2757424290075126</v>
+        <v>1.111589459645738</v>
       </c>
       <c r="K26" t="n">
-        <v>93.35333333333334</v>
+        <v>99.99839743589745</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1814760561164546</v>
+        <v>4.954964990935548e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>90.42</v>
+        <v>93.34134615384616</v>
       </c>
       <c r="N26" t="n">
-        <v>0.27461577388554</v>
+        <v>1.114475168040491</v>
       </c>
       <c r="O26" t="n">
-        <v>93.20333333333332</v>
+        <v>100</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1832531223353251</v>
+        <v>1.119782786134386e-05</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.40000000000001</v>
+        <v>93.38942307692308</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2753394041686617</v>
+        <v>1.140420926517979</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FashionMNIST</t>
+          <t>EMNIST</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>93.64333333333332</v>
+        <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1765121762135907</v>
+        <v>1.610376652405465e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>90.58</v>
+        <v>93.0721153846154</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2751925231318867</v>
+        <v>1.205844920398931</v>
       </c>
       <c r="G27" t="n">
-        <v>93.56166666666668</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1776514259315</v>
+        <v>1.610376652405465e-05</v>
       </c>
       <c r="I27" t="n">
-        <v>90.45999999999999</v>
+        <v>93.0721153846154</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2753414452971209</v>
+        <v>1.205844920398931</v>
       </c>
       <c r="K27" t="n">
-        <v>93.655</v>
+        <v>99.99599358974361</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1765298004205757</v>
+        <v>9.64361268599556e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>90.59999999999999</v>
+        <v>93.08173076923076</v>
       </c>
       <c r="N27" t="n">
-        <v>0.2751790446234601</v>
+        <v>1.216797199764706</v>
       </c>
       <c r="O27" t="n">
-        <v>93.57833333333332</v>
+        <v>100</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1777261833373513</v>
+        <v>1.286069975360636e-05</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.52</v>
+        <v>93.10576923076924</v>
       </c>
       <c r="R27" t="n">
-        <v>0.276105000180716</v>
+        <v>1.231355634905841</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FashionMNIST</t>
+          <t>EMNIST</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>95.86166666666666</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1195517803449577</v>
+        <v>1.1109530091451e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>90.59999999999999</v>
+        <v>93.22596153846152</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3075518688480116</v>
+        <v>1.158221528843768</v>
       </c>
       <c r="G28" t="n">
-        <v>95.75</v>
+        <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1213009285399184</v>
+        <v>1.1109530091451e-05</v>
       </c>
       <c r="I28" t="n">
-        <v>90.58</v>
+        <v>93.22596153846152</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3104381507633959</v>
+        <v>1.158221528843768</v>
       </c>
       <c r="K28" t="n">
-        <v>95.86666666666666</v>
+        <v>99.99278846153848</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1195488752933228</v>
+        <v>0.0001421148095789</v>
       </c>
       <c r="M28" t="n">
-        <v>90.59999999999999</v>
+        <v>93.22596153846152</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3075523105926475</v>
+        <v>1.168747935367284</v>
       </c>
       <c r="O28" t="n">
-        <v>95.735</v>
+        <v>100</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1213179355749152</v>
+        <v>9.025186369368024e-06</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.65000000000001</v>
+        <v>93.22115384615384</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3110044830897993</v>
+        <v>1.183385669394633</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FashionMNIST</t>
+          <t>EMNIST</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>93.76333333333334</v>
+        <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1752253463905972</v>
+        <v>1.381637100018158e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>90.29000000000001</v>
+        <v>92.9471153846154</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2784052003804946</v>
+        <v>1.261358007347232</v>
       </c>
       <c r="G29" t="n">
-        <v>93.67833333333331</v>
+        <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1766611210210322</v>
+        <v>1.381637100018158e-05</v>
       </c>
       <c r="I29" t="n">
-        <v>90.27</v>
+        <v>92.9471153846154</v>
       </c>
       <c r="J29" t="n">
-        <v>0.279222828395458</v>
+        <v>1.261358007347232</v>
       </c>
       <c r="K29" t="n">
-        <v>93.75833333333334</v>
+        <v>99.99919871794872</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1751374136194226</v>
+        <v>2.032894585575004e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>90.29000000000001</v>
+        <v>92.93269230769231</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2784185260300184</v>
+        <v>1.263616117933418</v>
       </c>
       <c r="O29" t="n">
-        <v>93.69833333333334</v>
+        <v>100</v>
       </c>
       <c r="P29" t="n">
-        <v>0.1767009330063242</v>
+        <v>1.139566079835398e-05</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.42</v>
+        <v>92.97596153846152</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2789749415558107</v>
+        <v>1.283921948916747</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FashionMNIST</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>5</v>
+          <t>EMNIST</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>93.58</v>
+        <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1780264505164259</v>
+        <v>1.360352578190755e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>90.76000000000001</v>
+        <v>93.13173076923077</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2625935449975994</v>
+        <v>1.216326420995664</v>
       </c>
       <c r="G30" t="n">
-        <v>93.51666666666668</v>
+        <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1792471366389667</v>
+        <v>1.360352578190755e-05</v>
       </c>
       <c r="I30" t="n">
-        <v>90.83</v>
+        <v>93.13173076923077</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2623361361507473</v>
+        <v>1.216326420995664</v>
       </c>
       <c r="K30" t="n">
-        <v>93.57833333333332</v>
+        <v>99.99679487179488</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1780276434824544</v>
+        <v>7.279998137380995e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>90.76000000000001</v>
+        <v>93.11826923076923</v>
       </c>
       <c r="N30" t="n">
-        <v>0.2625818578314672</v>
+        <v>1.222070395346318</v>
       </c>
       <c r="O30" t="n">
-        <v>93.52166666666666</v>
+        <v>100</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1792603411469708</v>
+        <v>1.077990734782993e-05</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.73999999999999</v>
+        <v>93.14519230769231</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2627236862500916</v>
+        <v>1.244787387288808</v>
       </c>
     </row>
     <row r="31">
@@ -2221,348 +2223,348 @@
           <t>FashionMNIST</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="B31" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>94.03933333333332</v>
+        <v>93.34833333333331</v>
       </c>
       <c r="D31" t="n">
-        <v>0.166167557336363</v>
+        <v>0.1815220332162433</v>
       </c>
       <c r="E31" t="n">
-        <v>90.53400000000001</v>
+        <v>90.44</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2796693276819993</v>
+        <v>0.274603501052004</v>
       </c>
       <c r="G31" t="n">
-        <v>93.95599999999999</v>
+        <v>93.27333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1676193988869041</v>
+        <v>0.1832363823031029</v>
       </c>
       <c r="I31" t="n">
-        <v>90.47799999999998</v>
+        <v>90.25</v>
       </c>
       <c r="J31" t="n">
-        <v>0.280616197922847</v>
+        <v>0.2757424290075126</v>
       </c>
       <c r="K31" t="n">
-        <v>94.04233333333333</v>
+        <v>93.35333333333334</v>
       </c>
       <c r="L31" t="n">
-        <v>0.166143957786446</v>
+        <v>0.1814760561164546</v>
       </c>
       <c r="M31" t="n">
-        <v>90.53400000000001</v>
+        <v>90.42</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2796695025926266</v>
+        <v>0.27461577388554</v>
       </c>
       <c r="O31" t="n">
-        <v>93.94733333333332</v>
+        <v>93.20333333333332</v>
       </c>
       <c r="P31" t="n">
-        <v>0.1676517030801773</v>
+        <v>0.1832531223353251</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.54600000000002</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2808295030490159</v>
+        <v>0.2753394041686617</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CIFAR10_32</t>
+          <t>FashionMNIST</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>93.43600000000001</v>
+        <v>93.64333333333332</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2077859530458822</v>
+        <v>0.1765121762135907</v>
       </c>
       <c r="E32" t="n">
-        <v>78.43000000000001</v>
+        <v>90.58</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7341330556869506</v>
+        <v>0.2751925231318867</v>
       </c>
       <c r="G32" t="n">
-        <v>95.212</v>
+        <v>93.56166666666668</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1345049714791062</v>
+        <v>0.1776514259315</v>
       </c>
       <c r="I32" t="n">
-        <v>76.61</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>1.117412532615662</v>
+        <v>0.2753414452971209</v>
       </c>
       <c r="K32" t="n">
-        <v>95.254</v>
+        <v>93.655</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1717733615303039</v>
+        <v>0.1765298004205757</v>
       </c>
       <c r="M32" t="n">
-        <v>78.43000000000001</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="N32" t="n">
-        <v>0.7341682271003723</v>
+        <v>0.2751790446234601</v>
       </c>
       <c r="O32" t="n">
-        <v>93.42400000000001</v>
+        <v>93.57833333333332</v>
       </c>
       <c r="P32" t="n">
-        <v>0.1863272721352784</v>
+        <v>0.1777261833373513</v>
       </c>
       <c r="Q32" t="n">
-        <v>77.43000000000001</v>
+        <v>90.52</v>
       </c>
       <c r="R32" t="n">
-        <v>0.8412835019111633</v>
+        <v>0.276105000180716</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CIFAR10_32</t>
+          <t>FashionMNIST</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>92.864</v>
+        <v>95.86166666666666</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2236818202659297</v>
+        <v>0.1195517803449577</v>
       </c>
       <c r="E33" t="n">
-        <v>78.04000000000001</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7266875535964966</v>
+        <v>0.3075518688480116</v>
       </c>
       <c r="G33" t="n">
-        <v>95.066</v>
+        <v>95.75</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1367296761359133</v>
+        <v>0.1213009285399184</v>
       </c>
       <c r="I33" t="n">
-        <v>76.05</v>
+        <v>90.58</v>
       </c>
       <c r="J33" t="n">
-        <v>1.072839260673523</v>
+        <v>0.3104381507633959</v>
       </c>
       <c r="K33" t="n">
-        <v>94.94799999999999</v>
+        <v>95.86666666666666</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1827377432966232</v>
+        <v>0.1195488752933228</v>
       </c>
       <c r="M33" t="n">
-        <v>78.04000000000001</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="N33" t="n">
-        <v>0.7266627035140991</v>
+        <v>0.3075523105926475</v>
       </c>
       <c r="O33" t="n">
-        <v>92.742</v>
+        <v>95.735</v>
       </c>
       <c r="P33" t="n">
-        <v>0.2032115936488904</v>
+        <v>0.1213179355749152</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.04000000000001</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="R33" t="n">
-        <v>0.8058162488937378</v>
+        <v>0.3110044830897993</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CIFAR10_32</t>
+          <t>FashionMNIST</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>94.92</v>
+        <v>93.76333333333334</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1654687563810126</v>
+        <v>0.1752253463905972</v>
       </c>
       <c r="E34" t="n">
-        <v>79.28</v>
+        <v>90.29000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7080255285263062</v>
+        <v>0.2784052003804946</v>
       </c>
       <c r="G34" t="n">
-        <v>96.276</v>
+        <v>93.67833333333331</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1066711295057859</v>
+        <v>0.1766611210210322</v>
       </c>
       <c r="I34" t="n">
-        <v>78.31999999999999</v>
+        <v>90.27</v>
       </c>
       <c r="J34" t="n">
-        <v>1.021918309020996</v>
+        <v>0.279222828395458</v>
       </c>
       <c r="K34" t="n">
-        <v>96.97</v>
+        <v>93.75833333333334</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1280123832893371</v>
+        <v>0.1751374136194226</v>
       </c>
       <c r="M34" t="n">
-        <v>79.28</v>
+        <v>90.29000000000001</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7079924348831177</v>
+        <v>0.2784185260300184</v>
       </c>
       <c r="O34" t="n">
-        <v>94.84999999999999</v>
+        <v>93.69833333333334</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1635068331409217</v>
+        <v>0.1767009330063242</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.38</v>
+        <v>90.42</v>
       </c>
       <c r="R34" t="n">
-        <v>0.7246333936691284</v>
+        <v>0.2789749415558107</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CIFAR10_32</t>
+          <t>FashionMNIST</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>94.22799999999999</v>
+        <v>93.58</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1855723969971813</v>
+        <v>0.1780264505164259</v>
       </c>
       <c r="E35" t="n">
-        <v>79.22</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7079025059700013</v>
+        <v>0.2625935449975994</v>
       </c>
       <c r="G35" t="n">
-        <v>95.292</v>
+        <v>93.51666666666668</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1322202239950161</v>
+        <v>0.1792471366389667</v>
       </c>
       <c r="I35" t="n">
-        <v>78.68000000000001</v>
+        <v>90.83</v>
       </c>
       <c r="J35" t="n">
-        <v>0.979325615119934</v>
+        <v>0.2623361361507473</v>
       </c>
       <c r="K35" t="n">
-        <v>96.086</v>
+        <v>93.57833333333332</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1481788173675537</v>
+        <v>0.1780276434824544</v>
       </c>
       <c r="M35" t="n">
-        <v>79.23</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="N35" t="n">
-        <v>0.707955706501007</v>
+        <v>0.2625818578314672</v>
       </c>
       <c r="O35" t="n">
-        <v>92.95</v>
+        <v>93.52166666666666</v>
       </c>
       <c r="P35" t="n">
-        <v>0.199976423355129</v>
+        <v>0.1792603411469708</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.98</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="R35" t="n">
-        <v>0.7558006505966186</v>
+        <v>0.2627236862500916</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CIFAR10_32</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>5</v>
+          <t>FashionMNIST</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>93.87</v>
+        <v>94.03933333333332</v>
       </c>
       <c r="D36" t="n">
-        <v>0.195351429445588</v>
+        <v>0.166167557336363</v>
       </c>
       <c r="E36" t="n">
-        <v>78.59999999999999</v>
+        <v>90.53400000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.729002089214325</v>
+        <v>0.2796693276819993</v>
       </c>
       <c r="G36" t="n">
-        <v>95.768</v>
+        <v>93.95599999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0.11789026549872</v>
+        <v>0.1676193988869041</v>
       </c>
       <c r="I36" t="n">
-        <v>77.48</v>
+        <v>90.47799999999998</v>
       </c>
       <c r="J36" t="n">
-        <v>1.10556518611908</v>
+        <v>0.280616197922847</v>
       </c>
       <c r="K36" t="n">
-        <v>95.86199999999999</v>
+        <v>94.04233333333333</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1572763874006271</v>
+        <v>0.166143957786446</v>
       </c>
       <c r="M36" t="n">
-        <v>78.56999999999999</v>
+        <v>90.53400000000001</v>
       </c>
       <c r="N36" t="n">
-        <v>0.7290897211074829</v>
+        <v>0.2796695025926266</v>
       </c>
       <c r="O36" t="n">
-        <v>93.592</v>
+        <v>93.94733333333332</v>
       </c>
       <c r="P36" t="n">
-        <v>0.1853801081495364</v>
+        <v>0.1676517030801773</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.73999999999999</v>
+        <v>90.54600000000002</v>
       </c>
       <c r="R36" t="n">
-        <v>0.8404797431945801</v>
+        <v>0.2808295030490159</v>
       </c>
     </row>
     <row r="37">
@@ -2571,291 +2573,581 @@
           <t>CIFAR10_32</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
+      <c r="B37" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>93.86360000000001</v>
+        <v>93.43600000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1955720712271188</v>
+        <v>0.2077859530458822</v>
       </c>
       <c r="E37" t="n">
-        <v>78.71400000000001</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7211501465988158</v>
+        <v>0.7341330556869506</v>
       </c>
       <c r="G37" t="n">
-        <v>95.5228</v>
+        <v>95.212</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1256032533229083</v>
+        <v>0.1345049714791062</v>
       </c>
       <c r="I37" t="n">
-        <v>77.428</v>
+        <v>76.61</v>
       </c>
       <c r="J37" t="n">
-        <v>1.059412180709839</v>
+        <v>1.117412532615662</v>
       </c>
       <c r="K37" t="n">
-        <v>95.824</v>
+        <v>95.254</v>
       </c>
       <c r="L37" t="n">
-        <v>0.157595738576889</v>
+        <v>0.1717733615303039</v>
       </c>
       <c r="M37" t="n">
-        <v>78.71000000000001</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7211737586212159</v>
+        <v>0.7341682271003723</v>
       </c>
       <c r="O37" t="n">
-        <v>93.51159999999999</v>
+        <v>93.42400000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1876804460859512</v>
+        <v>0.1863272721352784</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.31400000000001</v>
+        <v>77.43000000000001</v>
       </c>
       <c r="R37" t="n">
-        <v>0.7936027076530456</v>
+        <v>0.8412835019111633</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SVHN_32</t>
+          <t>CIFAR10_32</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>96.9996041333934</v>
+        <v>92.864</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1174097144911187</v>
+        <v>0.2236818202659297</v>
       </c>
       <c r="E38" t="n">
-        <v>93.55024585126</v>
+        <v>78.04000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2296614794091498</v>
+        <v>0.7266875535964966</v>
       </c>
       <c r="G38" t="n">
-        <v>97.32721787678992</v>
+        <v>95.066</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0923936641579859</v>
+        <v>0.1367296761359133</v>
       </c>
       <c r="I38" t="n">
-        <v>92.36708666256916</v>
+        <v>76.05</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3000191767598699</v>
+        <v>1.072839260673523</v>
       </c>
       <c r="K38" t="n">
-        <v>97.74629045688468</v>
+        <v>94.94799999999999</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1016842103360666</v>
+        <v>0.1827377432966232</v>
       </c>
       <c r="M38" t="n">
-        <v>93.5540872771973</v>
+        <v>78.04000000000001</v>
       </c>
       <c r="N38" t="n">
-        <v>0.229657483356418</v>
+        <v>0.7266627035140991</v>
       </c>
       <c r="O38" t="n">
-        <v>96.53821477810996</v>
+        <v>92.742</v>
       </c>
       <c r="P38" t="n">
-        <v>0.122077937298922</v>
+        <v>0.2032115936488904</v>
       </c>
       <c r="Q38" t="n">
-        <v>93.17762753534112</v>
+        <v>78.04000000000001</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2419530377890995</v>
+        <v>0.8058162488937378</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SVHN_32</t>
+          <t>CIFAR10_32</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>97.05147630943118</v>
+        <v>94.92</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1143365313929371</v>
+        <v>0.1654687563810126</v>
       </c>
       <c r="E39" t="n">
-        <v>93.82682851874615</v>
+        <v>79.28</v>
       </c>
       <c r="F39" t="n">
-        <v>0.223590963023824</v>
+        <v>0.7080255285263062</v>
       </c>
       <c r="G39" t="n">
-        <v>97.17706157773318</v>
+        <v>96.276</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0953459775262394</v>
+        <v>0.1066711295057859</v>
       </c>
       <c r="I39" t="n">
-        <v>93.19299323909036</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2796316289267953</v>
+        <v>1.021918309020996</v>
       </c>
       <c r="K39" t="n">
-        <v>97.75584585773372</v>
+        <v>96.97</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0983725820244581</v>
+        <v>0.1280123832893371</v>
       </c>
       <c r="M39" t="n">
-        <v>93.82682851874615</v>
+        <v>79.28</v>
       </c>
       <c r="N39" t="n">
-        <v>0.2235252685025197</v>
+        <v>0.7079924348831177</v>
       </c>
       <c r="O39" t="n">
-        <v>96.74843359678938</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1170137405362972</v>
+        <v>0.1635068331409217</v>
       </c>
       <c r="Q39" t="n">
-        <v>93.38122311001844</v>
+        <v>79.38</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2394782160972625</v>
+        <v>0.7246333936691284</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SVHN_32</t>
+          <t>CIFAR10_32</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>97.40502614084662</v>
+        <v>94.22799999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1052261014066343</v>
+        <v>0.1855723969971813</v>
       </c>
       <c r="E40" t="n">
-        <v>93.40043023970496</v>
+        <v>79.22</v>
       </c>
       <c r="F40" t="n">
-        <v>0.230220852198781</v>
+        <v>0.7079025059700013</v>
       </c>
       <c r="G40" t="n">
-        <v>97.45143808782778</v>
+        <v>95.292</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08635372958597461</v>
+        <v>0.1322202239950161</v>
       </c>
       <c r="I40" t="n">
-        <v>92.85878918254456</v>
+        <v>78.68000000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2923355143295158</v>
+        <v>0.979325615119934</v>
       </c>
       <c r="K40" t="n">
-        <v>98.02066696697926</v>
+        <v>96.086</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0904381719437715</v>
+        <v>0.1481788173675537</v>
       </c>
       <c r="M40" t="n">
-        <v>93.39658881376766</v>
+        <v>79.23</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2302205755244242</v>
+        <v>0.707955706501007</v>
       </c>
       <c r="O40" t="n">
-        <v>97.33404316311068</v>
+        <v>92.95</v>
       </c>
       <c r="P40" t="n">
-        <v>0.104977183670261</v>
+        <v>0.199976423355129</v>
       </c>
       <c r="Q40" t="n">
-        <v>93.20451751690229</v>
+        <v>78.98</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2334991286302096</v>
+        <v>0.7558006505966186</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>CIFAR10_32</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>93.87</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.195351429445588</v>
+      </c>
+      <c r="E41" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.729002089214325</v>
+      </c>
+      <c r="G41" t="n">
+        <v>95.768</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.11789026549872</v>
+      </c>
+      <c r="I41" t="n">
+        <v>77.48</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.10556518611908</v>
+      </c>
+      <c r="K41" t="n">
+        <v>95.86199999999999</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.1572763874006271</v>
+      </c>
+      <c r="M41" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.7290897211074829</v>
+      </c>
+      <c r="O41" t="n">
+        <v>93.592</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.1853801081495364</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>77.73999999999999</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.8404797431945801</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CIFAR10_32</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>93.86360000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.1955720712271188</v>
+      </c>
+      <c r="E42" t="n">
+        <v>78.71400000000001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.7211501465988158</v>
+      </c>
+      <c r="G42" t="n">
+        <v>95.5228</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.1256032533229083</v>
+      </c>
+      <c r="I42" t="n">
+        <v>77.428</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.059412180709839</v>
+      </c>
+      <c r="K42" t="n">
+        <v>95.824</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.157595738576889</v>
+      </c>
+      <c r="M42" t="n">
+        <v>78.71000000000001</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.7211737586212159</v>
+      </c>
+      <c r="O42" t="n">
+        <v>93.51159999999999</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.1876804460859512</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>78.31400000000001</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.7936027076530456</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>SVHN_32</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>96.9996041333934</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1174097144911187</v>
+      </c>
+      <c r="E43" t="n">
+        <v>93.55024585126</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.2296614794091498</v>
+      </c>
+      <c r="G43" t="n">
+        <v>97.32721787678992</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0923936641579859</v>
+      </c>
+      <c r="I43" t="n">
+        <v>92.36708666256916</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3000191767598699</v>
+      </c>
+      <c r="K43" t="n">
+        <v>97.74629045688468</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.1016842103360666</v>
+      </c>
+      <c r="M43" t="n">
+        <v>93.5540872771973</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.229657483356418</v>
+      </c>
+      <c r="O43" t="n">
+        <v>96.53821477810996</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.122077937298922</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>93.17762753534112</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2419530377890995</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SVHN_32</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>97.05147630943118</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1143365313929371</v>
+      </c>
+      <c r="E44" t="n">
+        <v>93.82682851874615</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.223590963023824</v>
+      </c>
+      <c r="G44" t="n">
+        <v>97.17706157773318</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0953459775262394</v>
+      </c>
+      <c r="I44" t="n">
+        <v>93.19299323909036</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.2796316289267953</v>
+      </c>
+      <c r="K44" t="n">
+        <v>97.75584585773372</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0983725820244581</v>
+      </c>
+      <c r="M44" t="n">
+        <v>93.82682851874615</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.2235252685025197</v>
+      </c>
+      <c r="O44" t="n">
+        <v>96.74843359678938</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.1170137405362972</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>93.38122311001844</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.2394782160972625</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SVHN_32</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>97.40502614084662</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1052261014066343</v>
+      </c>
+      <c r="E45" t="n">
+        <v>93.40043023970496</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.230220852198781</v>
+      </c>
+      <c r="G45" t="n">
+        <v>97.45143808782778</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.08635372958597461</v>
+      </c>
+      <c r="I45" t="n">
+        <v>92.85878918254456</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.2923355143295158</v>
+      </c>
+      <c r="K45" t="n">
+        <v>98.02066696697926</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0904381719437715</v>
+      </c>
+      <c r="M45" t="n">
+        <v>93.39658881376766</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.2302205755244242</v>
+      </c>
+      <c r="O45" t="n">
+        <v>97.33404316311068</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.104977183670261</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>93.20451751690229</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.2334991286302096</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SVHN_32</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C46" t="n">
         <v>97.15203552789039</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D46" t="n">
         <v>0.1123241157635634</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E46" t="n">
         <v>93.59250153657037</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F46" t="n">
         <v>0.2278244315439183</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G46" t="n">
         <v>97.31857251411697</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H46" t="n">
         <v>0.09136445709006663</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I46" t="n">
         <v>92.80628969473469</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J46" t="n">
         <v>0.2906621066720603</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K46" t="n">
         <v>97.84093442719922</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L46" t="n">
         <v>0.09683165476809874</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M46" t="n">
         <v>93.59250153657037</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N46" t="n">
         <v>0.2278011091277873</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O46" t="n">
         <v>96.87356384600334</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P46" t="n">
         <v>0.1146896205018267</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q46" t="n">
         <v>93.25445605408727</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R46" t="n">
         <v>0.2383101275055239</v>
       </c>
     </row>
